--- a/data/pop_breakdown.xlsx
+++ b/data/pop_breakdown.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toddf\Documents\New NSS\DA9 Excel\norris_capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E054C90C-F519-4087-9EEF-A41509BD07C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8A9DA5-D248-4CDE-B96A-F27D9308FB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="240" windowWidth="20460" windowHeight="14595" tabRatio="676" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4905" yWindow="285" windowWidth="17940" windowHeight="14535" tabRatio="676" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NO MLB Team" sheetId="1" r:id="rId1"/>
-    <sheet name="PBI NO MLB Team " sheetId="5" r:id="rId2"/>
+    <sheet name="NO MLB Team " sheetId="5" r:id="rId2"/>
     <sheet name="PBI Pop " sheetId="6" r:id="rId3"/>
-    <sheet name="US Cities with MLB Teams" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="US Cities with MLB Teams" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -846,7 +847,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -872,6 +873,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1347,7 +1349,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F7737D-E5A8-48B9-91B7-831C196F6B46}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2235,11 +2237,169 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB48F9EA-BF9E-448D-B68F-4330BD7CE1DD}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D1" s="7">
+        <v>8335897</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D2" s="7">
+        <v>3822238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D3" s="7">
+        <v>2665039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D4" s="7">
+        <v>2302878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1644409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1567258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1381162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1299544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>808437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>749256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>713252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>671803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>650706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>620376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>569931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>563305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>509297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>499127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>449514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>430553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>425096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>398173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>361607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>309513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>302898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>286578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <f>AVERAGE(A2:A26)</f>
+        <v>691445.22727272729</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A26">
+    <sortCondition descending="1" ref="A1:A26"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79B67CA-3231-4A23-A596-D63E5D021C6F}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2264,218 +2424,218 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7">
-        <v>499127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8335897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B3" s="7">
-        <v>569931</v>
+        <v>3822238</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B4" s="7">
-        <v>650706</v>
+        <v>2665039</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="7">
-        <v>2665039</v>
+        <v>2302878</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="10">
-        <v>309513</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1644409</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10">
-        <v>361607</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1567258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7">
-        <v>1299544</v>
+        <v>1381162</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" s="7">
-        <v>713252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1299544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7">
-        <v>620376</v>
+        <v>808437</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B11" s="7">
-        <v>2302878</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+        <v>749256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B12" s="7">
-        <v>509297</v>
+        <v>713252</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B13" s="7">
-        <v>3822238</v>
+        <v>671803</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7">
-        <v>449514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+        <v>650706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7">
+        <v>620376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7">
+        <v>569931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B17" s="7">
         <v>563305</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7">
-        <v>425096</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="7">
-        <v>8335897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18" s="7">
-        <v>430553</v>
+        <v>509297</v>
       </c>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B19" s="7">
-        <v>1567258</v>
+        <v>499127</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7">
-        <v>1644409</v>
+        <v>449514</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="10">
-        <v>302898</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="7">
+        <v>430553</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B22" s="7">
-        <v>1381162</v>
+        <v>425096</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="7">
-        <v>808437</v>
+        <v>16</v>
+      </c>
+      <c r="B23" s="10">
+        <v>398173</v>
       </c>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="7">
-        <v>749256</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="10">
+        <v>361607</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="10">
+        <v>309513</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="10">
+        <v>302898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B27" s="10">
         <v>286578</v>
-      </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="10">
-        <v>398173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7">
-        <v>671803</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2556,8 +2716,8 @@
       <c r="C48" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B27">
-    <sortCondition ref="A2:A27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B48">
+    <sortCondition descending="1" ref="B1:B48"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pop_breakdown.xlsx
+++ b/data/pop_breakdown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toddf\Documents\New NSS\DA9 Excel\norris_capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8A9DA5-D248-4CDE-B96A-F27D9308FB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF6ED75-A04C-45C4-B9F2-883A2B794B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="285" windowWidth="17940" windowHeight="14535" tabRatio="676" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="2850" windowWidth="24750" windowHeight="12465" tabRatio="676" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NO MLB Team" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="PBI Pop " sheetId="6" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
     <sheet name="US Cities with MLB Teams" sheetId="4" r:id="rId5"/>
+    <sheet name="US Cities with MLB minus top 4" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="101">
   <si>
     <t>City</t>
   </si>
@@ -2398,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79B67CA-3231-4A23-A596-D63E5D021C6F}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2721,4 +2722,207 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81FA13A-A5BB-43B0-99F7-290A533F4E13}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1644409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1567258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1381162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1299544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7">
+        <v>808437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="7">
+        <v>749256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7">
+        <v>713252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="7">
+        <v>671803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="7">
+        <v>650706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7">
+        <v>620376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7">
+        <v>569931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7">
+        <v>563305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="7">
+        <v>509297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7">
+        <v>499127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7">
+        <v>449514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7">
+        <v>430553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>425096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10">
+        <v>398173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10">
+        <v>361607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="10">
+        <v>309513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10">
+        <v>302898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="10">
+        <v>286578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>